--- a/Ranking result.xlsx
+++ b/Ranking result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Chinese Title</t>
   </si>
@@ -22,64 +22,58 @@
     <t>Totle Score</t>
   </si>
   <si>
+    <t>大娛樂家</t>
+  </si>
+  <si>
     <t>可可夜總會</t>
   </si>
   <si>
-    <t>大娛樂家</t>
-  </si>
-  <si>
-    <t>奇蹟男孩</t>
-  </si>
-  <si>
-    <t>血觀音</t>
+    <t>以你的名字呼喚我</t>
   </si>
   <si>
     <t>與神同行</t>
   </si>
   <si>
-    <t>遊戲人生Zero</t>
-  </si>
-  <si>
-    <t>魔法科高中的劣等生 呼喚繁星的少女</t>
+    <t>疾速救援</t>
+  </si>
+  <si>
+    <t>心理罪之城市之光</t>
+  </si>
+  <si>
+    <t>最黑暗的時刻</t>
+  </si>
+  <si>
+    <t>1987：黎明到來的那一天</t>
+  </si>
+  <si>
+    <t>歌喉讚3</t>
+  </si>
+  <si>
+    <t>野蠻遊戲：瘋狂叢林</t>
+  </si>
+  <si>
+    <t>美力台灣3D</t>
   </si>
   <si>
     <t>幸福路上</t>
   </si>
   <si>
-    <t>美力台灣3D</t>
-  </si>
-  <si>
-    <t>野蠻遊戲：瘋狂叢林</t>
-  </si>
-  <si>
-    <t>東方快車謀殺案</t>
-  </si>
-  <si>
-    <t>歌喉讚3</t>
-  </si>
-  <si>
-    <t>聖鹿之死</t>
-  </si>
-  <si>
-    <t>少女與戰車最終章：第一話</t>
-  </si>
-  <si>
-    <t>小猫巴克里</t>
-  </si>
-  <si>
-    <t>猜猜我是誰</t>
-  </si>
-  <si>
-    <t>希望在世界另一端</t>
-  </si>
-  <si>
-    <t>發條橘子</t>
-  </si>
-  <si>
     <t>STAR WARS：最後的絕地武士</t>
   </si>
   <si>
-    <t>衝組</t>
+    <t>陰兒房第4章：鎖命亡靈</t>
+  </si>
+  <si>
+    <t>天上再見</t>
+  </si>
+  <si>
+    <t>高更：愛在他鄉</t>
+  </si>
+  <si>
+    <t>第三次殺人</t>
+  </si>
+  <si>
+    <t>機器之血</t>
   </si>
 </sst>
 </file>
@@ -437,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>110.8</v>
+        <v>94.03485804416404</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -464,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>107.65</v>
+        <v>93.77619047619048</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -472,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>100.35</v>
+        <v>93.58571428571429</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -480,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>92.9828793774319</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -488,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>93.69999999999999</v>
+        <v>91.14897959183672</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -496,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>91.45</v>
+        <v>90.94322033898304</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -504,7 +498,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>91.34999999999999</v>
+        <v>89.85000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -512,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>89.44999999999999</v>
+        <v>88.98571428571429</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -520,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>86.75</v>
+        <v>88.23278688524589</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -528,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>86.7</v>
+        <v>87.67</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -536,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>81.39999999999999</v>
+        <v>85.675</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -544,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>80.89999999999999</v>
+        <v>85.57857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -552,7 +546,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>80.05</v>
+        <v>83.05701754385964</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -560,7 +554,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>78.55</v>
+        <v>80.99756097560974</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -568,7 +562,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>71.95</v>
+        <v>80.19999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -576,7 +570,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>69.65000000000001</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -584,7 +578,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>66.65000000000001</v>
+        <v>65.34999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -592,23 +586,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>48.45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>46.2</v>
+        <v>63.05</v>
       </c>
     </row>
   </sheetData>
